--- a/www/IndicatorsPerCountry/Kenya_GDPperCapita_TerritorialRef_1963_2012_CCode_404.xlsx
+++ b/www/IndicatorsPerCountry/Kenya_GDPperCapita_TerritorialRef_1963_2012_CCode_404.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Kenya_GDPperCapita_TerritorialRef_1963_2012_CCode_404.xlsx
+++ b/www/IndicatorsPerCountry/Kenya_GDPperCapita_TerritorialRef_1963_2012_CCode_404.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>651</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>667</t>
-  </si>
-  <si>
-    <t>633</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>725</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>726</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>714</t>
-  </si>
-  <si>
-    <t>758</t>
-  </si>
-  <si>
-    <t>743</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>881</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>981</t>
-  </si>
-  <si>
-    <t>942</t>
-  </si>
-  <si>
-    <t>943</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>1039</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>1051</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>1054</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1040</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>1092</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1117.25887282</t>
-  </si>
-  <si>
-    <t>1096.00562708</t>
-  </si>
-  <si>
-    <t>1044.90814996</t>
-  </si>
-  <si>
-    <t>1011.40519442</t>
-  </si>
-  <si>
-    <t>1011.84448244</t>
-  </si>
-  <si>
-    <t>1028.96726554</t>
-  </si>
-  <si>
-    <t>1044.34319061</t>
-  </si>
-  <si>
-    <t>1021.78789254</t>
-  </si>
-  <si>
-    <t>1031.41657305</t>
-  </si>
-  <si>
-    <t>1031.98483361</t>
-  </si>
-  <si>
-    <t>1013.35340909</t>
-  </si>
-  <si>
-    <t>1033.64794489</t>
-  </si>
-  <si>
-    <t>1008.17686926</t>
-  </si>
-  <si>
-    <t>1007.22236949</t>
-  </si>
-  <si>
-    <t>1023.58685648</t>
-  </si>
-  <si>
-    <t>1053.32075549</t>
-  </si>
-  <si>
-    <t>1086.95756361</t>
-  </si>
-  <si>
-    <t>1128.99895504</t>
-  </si>
-  <si>
-    <t>1112.57680351</t>
-  </si>
-  <si>
-    <t>1109.4166242</t>
-  </si>
-  <si>
-    <t>1140.7480045</t>
+    <t>1038</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>1009</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>1173</t>
+  </si>
+  <si>
+    <t>1176</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>1184</t>
+  </si>
+  <si>
+    <t>1294</t>
+  </si>
+  <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1458</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>1502</t>
+  </si>
+  <si>
+    <t>1503</t>
+  </si>
+  <si>
+    <t>1580</t>
+  </si>
+  <si>
+    <t>1656</t>
+  </si>
+  <si>
+    <t>1651</t>
+  </si>
+  <si>
+    <t>1675</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1680</t>
+  </si>
+  <si>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1658</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>1741</t>
+  </si>
+  <si>
+    <t>1761</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1777.78378054864</t>
+  </si>
+  <si>
+    <t>1724.8744312691</t>
+  </si>
+  <si>
+    <t>1698.25414622437</t>
+  </si>
+  <si>
+    <t>1729.71716115145</t>
+  </si>
+  <si>
+    <t>1789.89454405253</t>
+  </si>
+  <si>
+    <t>1851.28138215243</t>
+  </si>
+  <si>
+    <t>1846.3738357664</t>
+  </si>
+  <si>
+    <t>1889.97310366846</t>
+  </si>
+  <si>
+    <t>1920.83394493269</t>
+  </si>
+  <si>
+    <t>1914.8863918102</t>
+  </si>
+  <si>
+    <t>1972.38110614001</t>
+  </si>
+  <si>
+    <t>1961.89493984161</t>
+  </si>
+  <si>
+    <t>1997.77682002573</t>
+  </si>
+  <si>
+    <t>2066.21019811963</t>
+  </si>
+  <si>
+    <t>2157.84156954474</t>
+  </si>
+  <si>
+    <t>2255.25856515838</t>
+  </si>
+  <si>
+    <t>2380.77633261763</t>
+  </si>
+  <si>
+    <t>2357.23254112996</t>
+  </si>
+  <si>
+    <t>2404.62957991628</t>
+  </si>
+  <si>
+    <t>2579.53091765354</t>
+  </si>
+  <si>
+    <t>2712</t>
+  </si>
+  <si>
+    <t>2765</t>
+  </si>
+  <si>
+    <t>2854</t>
+  </si>
+  <si>
+    <t>2942</t>
+  </si>
+  <si>
+    <t>3046</t>
+  </si>
+  <si>
+    <t>3169</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1375,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
